--- a/weapons.xlsx
+++ b/weapons.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bomprezzi\Python\UST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CDB4017-9C87-4DA4-B304-DDA31FDF15F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24641CAA-7234-4E42-8B1E-F1E1E464FA3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{5C23DB5A-A81F-4525-B404-B4FC78BE025B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,45 +36,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>United states</t>
-  </si>
-  <si>
-    <t>Czechia industry</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Domestic industry</t>
-  </si>
-  <si>
-    <t>Stocks</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Belgian private</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
   <si>
     <t>Tanks</t>
   </si>
   <si>
-    <t>Howtizers 155mm</t>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Weapon type</t>
+  </si>
+  <si>
+    <t>Total commitments</t>
+  </si>
+  <si>
+    <t>MLRS</t>
+  </si>
+  <si>
+    <t>Howitzers</t>
+  </si>
+  <si>
+    <t>Feb. 2022</t>
+  </si>
+  <si>
+    <t>March 2022</t>
+  </si>
+  <si>
+    <t>April 2022</t>
+  </si>
+  <si>
+    <t>May 2022</t>
+  </si>
+  <si>
+    <t>June 2022</t>
+  </si>
+  <si>
+    <t>July 2022</t>
+  </si>
+  <si>
+    <t>Aug. 2022</t>
+  </si>
+  <si>
+    <t>Sep. 2022</t>
+  </si>
+  <si>
+    <t>Oct. 2022</t>
+  </si>
+  <si>
+    <t>Nov. 2022</t>
+  </si>
+  <si>
+    <t>Dec. 2022</t>
+  </si>
+  <si>
+    <t>Jan. 2023</t>
+  </si>
+  <si>
+    <t>Feb. 2023</t>
+  </si>
+  <si>
+    <t>March 2023</t>
+  </si>
+  <si>
+    <t>April 2023</t>
+  </si>
+  <si>
+    <t>May 2023</t>
+  </si>
+  <si>
+    <t>June 2023</t>
+  </si>
+  <si>
+    <t>July 2023</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>non-EU NATO</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -427,141 +474,1455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA755D9-D301-4F2C-9ADE-9AEE14434C57}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>94</v>
+      </c>
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>90</v>
+      </c>
+      <c r="H9">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>306</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>68</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>11.333333333333332</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>11.333333333333332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
         <v>18</v>
       </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>41.333333333333329</v>
+      </c>
+      <c r="E27">
+        <v>21.333333333333332</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>62.666666666666664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>45</v>
+      </c>
+      <c r="H31">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>72</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>51</v>
+      </c>
+      <c r="E36">
+        <v>48</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>134.66666666666666</v>
+      </c>
+      <c r="E37">
+        <v>49</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>31</v>
+      </c>
+      <c r="H37">
+        <v>183.66666666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>113.66666666666666</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>125.66666666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>38</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>38</v>
+      </c>
+      <c r="H48">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797C1211-4385-44EB-814C-3B1FA7E6E68B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/weapons.xlsx
+++ b/weapons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bomprezzi\Python\UST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24641CAA-7234-4E42-8B1E-F1E1E464FA3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290B6F70-61C4-45ED-AD17-F39CC771AA5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{5C23DB5A-A81F-4525-B404-B4FC78BE025B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="32">
   <si>
     <t>Tanks</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>Aug. 2023</t>
+  </si>
+  <si>
+    <t>Sep. 2023</t>
+  </si>
+  <si>
+    <t>Oct. 2023</t>
   </si>
 </sst>
 </file>
@@ -474,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA755D9-D301-4F2C-9ADE-9AEE14434C57}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,6 +1931,240 @@
         <v>25</v>
       </c>
     </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>30</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/weapons.xlsx
+++ b/weapons.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bomprezzi\Python\UST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pietr\Python\UST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290B6F70-61C4-45ED-AD17-F39CC771AA5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492EF17A-2D4E-4AB8-A695-3ED13411542F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{5C23DB5A-A81F-4525-B404-B4FC78BE025B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{5C23DB5A-A81F-4525-B404-B4FC78BE025B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="tanks" sheetId="4" r:id="rId2"/>
+    <sheet name="total HW by donor group" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
@@ -22,6 +24,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="35">
   <si>
     <t>Tanks</t>
   </si>
@@ -133,6 +146,15 @@
   <si>
     <t>Oct. 2023</t>
   </si>
+  <si>
+    <t>cumulative EU</t>
+  </si>
+  <si>
+    <t>cumulative non-EU NATO</t>
+  </si>
+  <si>
+    <t>cumulative US</t>
+  </si>
 </sst>
 </file>
 
@@ -184,6 +206,2814 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Cumulative tank commitments by donor group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28964280601288478"/>
+          <c:y val="1.5946840516526953E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tanks!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative EU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>tanks!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Feb. 2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>March 2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>April 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>May 2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>June 2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>July 2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Aug. 2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sep. 2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Oct. 2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nov. 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dec. 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jan. 2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Feb. 2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>March 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>April 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>May 2023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>June 2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>July 2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Aug. 2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sep. 2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Oct. 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tanks!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>523.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>637.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>637.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>651.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>651.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>652.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>677.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>677.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>707.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>707.33333333333326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8049-439D-AF20-6E06FE644880}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tanks!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative non-EU NATO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>tanks!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Feb. 2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>March 2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>April 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>May 2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>June 2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>July 2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Aug. 2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sep. 2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Oct. 2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nov. 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dec. 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jan. 2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Feb. 2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>March 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>April 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>May 2023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>June 2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>July 2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Aug. 2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sep. 2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Oct. 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tanks!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8049-439D-AF20-6E06FE644880}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tanks!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative US</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>tanks!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Feb. 2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>March 2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>April 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>May 2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>June 2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>July 2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Aug. 2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sep. 2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Oct. 2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nov. 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dec. 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jan. 2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Feb. 2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>March 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>April 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>May 2023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>June 2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>July 2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Aug. 2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sep. 2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Oct. 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tanks!$I$2:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8049-439D-AF20-6E06FE644880}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1576867504"/>
+        <c:axId val="1575441024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1576867504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1575441024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1575441024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1576867504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Cumulative commitments of heavy weapons by donor group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'total HW by donor group'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative EU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'total HW by donor group'!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Feb. 2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>March 2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>April 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>May 2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>June 2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>July 2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Aug. 2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sep. 2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Oct. 2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nov. 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dec. 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jan. 2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Feb. 2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>March 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>April 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>May 2023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>June 2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>July 2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Aug. 2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sep. 2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Oct. 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'total HW by donor group'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>470.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>504.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>547.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>594.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>666.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>852.33333333333326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>965.99999999999989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>965.99999999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1009.9999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1009.9999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1010.9999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E665-4D49-9411-759D195CDF42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'total HW by donor group'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative non-EU NATO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'total HW by donor group'!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Feb. 2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>March 2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>April 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>May 2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>June 2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>July 2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Aug. 2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sep. 2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Oct. 2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nov. 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dec. 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jan. 2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Feb. 2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>March 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>April 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>May 2023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>June 2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>July 2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Aug. 2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sep. 2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Oct. 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'total HW by donor group'!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>248.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>293.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>293.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>390.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>402.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>402.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>402.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>448.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>448.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>448.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>448.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>448.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>448.33333333333337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E665-4D49-9411-759D195CDF42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'total HW by donor group'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative US</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'total HW by donor group'!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Feb. 2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>March 2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>April 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>May 2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>June 2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>July 2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Aug. 2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sep. 2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Oct. 2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nov. 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dec. 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jan. 2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Feb. 2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>March 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>April 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>May 2023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>June 2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>July 2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Aug. 2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sep. 2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Oct. 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'total HW by donor group'!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E665-4D49-9411-759D195CDF42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="561608400"/>
+        <c:axId val="1511763376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="561608400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1511763376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1511763376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561608400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E27D841C-5BC1-D693-E766-1B1A3B31A392}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>282574</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>98424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93BDC595-4B5A-3788-B6E6-0923F31D82F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,23 +3315,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA755D9-D301-4F2C-9ADE-9AEE14434C57}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -527,7 +3357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -553,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -579,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -605,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -631,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -657,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -683,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -709,7 +3539,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -735,7 +3565,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -761,7 +3591,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -787,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -813,7 +3643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -839,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -865,7 +3695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -891,7 +3721,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -917,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -943,7 +3773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -969,7 +3799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -995,7 +3825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1021,7 +3851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +3877,7 @@
         <v>11.333333333333332</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1099,7 +3929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +3955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +3981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1177,7 +4007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1203,7 +4033,7 @@
         <v>62.666666666666664</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1229,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1255,7 +4085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1307,7 +4137,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +4189,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1385,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1411,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1437,7 +4267,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1463,7 +4293,7 @@
         <v>183.66666666666666</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1489,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1515,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1541,7 +4371,7 @@
         <v>125.66666666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1567,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1593,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1619,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -1645,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1671,7 +4501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -1697,7 +4527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1723,7 +4553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -1749,7 +4579,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -1775,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1801,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -1827,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -1853,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -1879,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -1905,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -1931,7 +4761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -1957,7 +4787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -1983,7 +4813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -2009,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -2035,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -2061,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -2087,7 +4917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -2113,7 +4943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -2139,7 +4969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -2167,6 +4997,1375 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF329F14-FEBB-4756-B814-0085AD27DDD2}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>D3+E2</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>F3+G2</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>H3+I2</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>306</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E22" si="0">D4+E3</f>
+        <v>306</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G22" si="1">F4+G3</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I22" si="2">H4+I3</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>389</v>
+      </c>
+      <c r="F11">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>45</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="J11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>389</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>134.66666666666666</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>523.66666666666663</v>
+      </c>
+      <c r="F13">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="H13">
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>183.66666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>113.66666666666666</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>637.33333333333326</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="J14">
+        <v>125.66666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>637.33333333333326</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>651.33333333333326</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>651.33333333333326</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>652.33333333333326</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>677.33333333333326</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>677.33333333333326</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>707.33333333333326</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>707.33333333333326</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F39C1D-328C-4594-A30D-F7B112A51C12}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>B3+C2</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>D3+E2</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>F3+G2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>419</v>
+      </c>
+      <c r="C4">
+        <f>B4+C3</f>
+        <v>419</v>
+      </c>
+      <c r="D4">
+        <v>94</v>
+      </c>
+      <c r="E4">
+        <f>D4+E3</f>
+        <v>94</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="G4">
+        <f>F4+G3</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <f>B5+C4</f>
+        <v>434</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <f>D5+E4</f>
+        <v>112</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <f>F5+G4</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <f>B6+C5</f>
+        <v>446</v>
+      </c>
+      <c r="D6">
+        <v>82</v>
+      </c>
+      <c r="E6">
+        <f>D6+E5</f>
+        <v>194</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <f>F6+G5</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <f>B7+C6</f>
+        <v>459</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <f>D7+E6</f>
+        <v>202</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f>F7+G6</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>11.333333333333332</v>
+      </c>
+      <c r="C8">
+        <f>B8+C7</f>
+        <v>470.33333333333331</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f>D8+E7</f>
+        <v>205</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>F8+G7</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <f>B9+C8</f>
+        <v>504.33333333333331</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <f>D9+E8</f>
+        <v>223</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <f>F9+G8</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>43.333333333333329</v>
+      </c>
+      <c r="C10">
+        <f>B10+C9</f>
+        <v>547.66666666666663</v>
+      </c>
+      <c r="D10">
+        <v>25.333333333333332</v>
+      </c>
+      <c r="E10">
+        <f>D10+E9</f>
+        <v>248.33333333333334</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <f>F10+G9</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <f>B11+C10</f>
+        <v>594.66666666666663</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <f>D11+E10</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="F11">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <f>F11+G10</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>72</v>
+      </c>
+      <c r="C12">
+        <f>B12+C11</f>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>D12+E11</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>F12+G11</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>185.66666666666666</v>
+      </c>
+      <c r="C13">
+        <f>B13+C12</f>
+        <v>852.33333333333326</v>
+      </c>
+      <c r="D13">
+        <v>97</v>
+      </c>
+      <c r="E13">
+        <f>D13+E12</f>
+        <v>390.33333333333337</v>
+      </c>
+      <c r="F13">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <f>F13+G12</f>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>113.66666666666666</v>
+      </c>
+      <c r="C14">
+        <f>B14+C13</f>
+        <v>965.99999999999989</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f>D14+E13</f>
+        <v>402.33333333333337</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>F14+G13</f>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>B15+C14</f>
+        <v>965.99999999999989</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>D15+E14</f>
+        <v>402.33333333333337</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>F15+G14</f>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <f>B16+C15</f>
+        <v>1009.9999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>D16+E15</f>
+        <v>402.33333333333337</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>F16+G15</f>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>B17+C16</f>
+        <v>1009.9999999999999</v>
+      </c>
+      <c r="D17">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <f>D17+E16</f>
+        <v>448.33333333333337</v>
+      </c>
+      <c r="F17">
+        <v>38</v>
+      </c>
+      <c r="G17">
+        <f>F17+G16</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>B18+C17</f>
+        <v>1010.9999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>D18+E17</f>
+        <v>448.33333333333337</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>F18+G17</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <f>B19+C18</f>
+        <v>1036</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>D19+E18</f>
+        <v>448.33333333333337</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>F19+G18</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>B20+C19</f>
+        <v>1036</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>D20+E19</f>
+        <v>448.33333333333337</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>F20+G19</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <f>B21+C20</f>
+        <v>1066</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>D21+E20</f>
+        <v>448.33333333333337</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>F21+G20</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>B22+C21</f>
+        <v>1066</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>D22+E21</f>
+        <v>448.33333333333337</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>F22+G21</f>
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
